--- a/legendre_out/DATA/p2/a0/p2_a0_legendrePointsAtSingleEnergy.xlsx
+++ b/legendre_out/DATA/p2/a0/p2_a0_legendrePointsAtSingleEnergy.xlsx
@@ -386,7 +386,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>0.0174532925199433</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>0.03490658503988659</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>0.05235987755982989</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>0.06981317007977318</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>0.08726646259971647</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>0.1047197551196598</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>0.1221730476396031</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>0.1396263401595464</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>0.1570796326794897</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>0.1745329251994329</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>0.1919862177193762</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>0.2094395102393196</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>0.2268928027592629</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>0.2443460952792061</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>0.2617993877991494</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>0.2792526803190927</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>0.296705972839036</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>0.3141592653589793</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>0.3316125578789226</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>0.3490658503988659</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>0.3665191429188092</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>0.3839724354387525</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>0.4014257279586958</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>0.4188790204786391</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>0.4363323129985824</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>0.4537856055185257</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>0.471238898038469</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>0.4886921905584123</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>0.5061454830783556</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>0.5235987755982988</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>0.5410520681182421</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>0.5585053606381855</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>0.5759586531581288</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>0.5934119456780721</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>0.6108652381980153</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>0.6283185307179586</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>0.6457718232379019</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>0.6632251157578453</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>0.6806784082777885</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>0.6981317007977318</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>0.7155849933176751</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>0.7330382858376184</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>0.7504915783575618</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>0.767944870877505</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>0.7853981633974483</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>0.8028514559173916</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>0.8203047484373349</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>0.8377580409572782</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>0.8552113334772214</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>0.8726646259971648</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>0.8901179185171081</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>0.9075712110370514</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>0.9250245035569946</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>0.9424777960769379</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>0.9599310885968813</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>0.9773843811168246</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>0.9948376736367679</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>1.012290966156711</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>1.029744258676655</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>1.047197551196598</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>1.064650843716541</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>1.082104136236484</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>1.099557428756428</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>1.117010721276371</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>1.134464013796314</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>1.151917306316258</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>1.169370598836201</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>1.186823891356144</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>1.204277183876087</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>1.221730476396031</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>1.239183768915974</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>1.256637061435917</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>1.274090353955861</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>1.291543646475804</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>1.308996938995747</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>1.326450231515691</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>1.343903524035634</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>1.361356816555577</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>1.37881010907552</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>1.396263401595464</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>1.413716694115407</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>1.43116998663535</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>1.448623279155294</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>1.466076571675237</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>1.48352986419518</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>1.500983156715124</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>1.518436449235067</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>1.53588974175501</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>1.553343034274953</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>1.570796326794897</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0003069896188060436</v>
+        <v>0.0003053129870425763</v>
       </c>
     </row>
   </sheetData>
